--- a/NEW HR/DONE/LANDICHO, ELEANOR.xlsx
+++ b/NEW HR/DONE/LANDICHO, ELEANOR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2892DB-DB84-4616-BF98-110779031A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA25557-8B7E-4293-BD09-180B8391C66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>12/26,27,28,29,30</t>
+  </si>
+  <si>
+    <t>ONT</t>
   </si>
 </sst>
 </file>
@@ -602,15 +605,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -623,11 +617,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2842,7 +2845,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3269,10 +3272,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5532" topLeftCell="A67" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <pane ySplit="3384" topLeftCell="A76" activePane="bottomLeft"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3302,14 +3305,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3320,14 +3323,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3340,14 +3343,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3373,18 +3378,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3431,7 +3436,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>43.25</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3441,7 +3446,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4524,15 +4529,11 @@
       <c r="A63" s="40">
         <v>44562</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="B63" s="20"/>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
-      <c r="D63" s="39">
-        <v>8</v>
-      </c>
+      <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
@@ -4542,9 +4543,7 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
@@ -4792,7 +4791,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4811,15 +4810,19 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44985</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4827,15 +4830,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>45016</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4843,15 +4850,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45046</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4859,15 +4870,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45077</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4875,15 +4890,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45107</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4891,15 +4910,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4907,7 +4930,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4923,7 +4948,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4939,7 +4966,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4955,7 +4984,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4971,7 +5002,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4987,7 +5020,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5003,7 +5038,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5019,7 +5056,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45382</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5035,7 +5074,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45412</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5051,7 +5092,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45443</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5067,7 +5110,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45473</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5083,7 +5128,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45504</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5099,7 +5146,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45535</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5740,17 +5789,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5785,10 +5834,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5532" topLeftCell="A10" activePane="bottomLeft"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="5532" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5819,14 +5868,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5840,17 +5889,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5864,17 +5913,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="51"/>
+        <v>ONT</v>
+      </c>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5900,18 +5949,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5958,7 +6007,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.167000000000002</v>
+        <v>90.167000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6066,7 +6115,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
       <c r="D14" s="39"/>
@@ -6082,10 +6133,16 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="39"/>
+      <c r="D15" s="39">
+        <v>8</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13" t="str">
@@ -6095,7 +6152,9 @@
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
